--- a/UiPath Material.xlsx
+++ b/UiPath Material.xlsx
@@ -14,9 +14,9 @@
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
     <sheet name="Youtube" sheetId="2" r:id="rId2"/>
-    <sheet name="UIpath 20.10" sheetId="6" r:id="rId3"/>
-    <sheet name="UiPath Orchestrator" sheetId="5" r:id="rId4"/>
-    <sheet name="Questions" sheetId="3" r:id="rId5"/>
+    <sheet name="UiPath Orchestrator" sheetId="5" r:id="rId3"/>
+    <sheet name="Questions" sheetId="3" r:id="rId4"/>
+    <sheet name="Computer Vision" sheetId="9" r:id="rId5"/>
     <sheet name="Excel" sheetId="7" r:id="rId6"/>
     <sheet name="Salary Hike Answer" sheetId="4" r:id="rId7"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="143">
   <si>
     <t>Aravo to SAP</t>
   </si>
@@ -657,22 +657,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Initialize </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>datarow = DT.NewRow</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Add data to datarow = </t>
     </r>
     <r>
@@ -787,9 +771,6 @@
       </rPr>
       <t>Inner Join, Left Join, Full Join</t>
     </r>
-  </si>
-  <si>
-    <t>What do u think is the right salary amount for this position</t>
   </si>
   <si>
     <t>PASC CashApp-Check</t>
@@ -889,9 +870,6 @@
 Output is "DataTable"</t>
   </si>
   <si>
-    <t>One Environment Can be attached to 2 different robots</t>
-  </si>
-  <si>
     <t>Current Date - System.DateTime.Now.ToString("dd-mm-yyyy hh:mm:ss")</t>
   </si>
   <si>
@@ -956,12 +934,6 @@
     <t>It would be great If I get a chance to work in your organization and I would be quite lucky. I think this organziation must be offering some fair amount to someone like me who is matching all the skills and qualifications to this position. Before this answer I would like to know more about my responsibilities regarding this job and I am curious to know what is the amount that you would be offering for this position. Then I can go ahead Mam.</t>
   </si>
   <si>
-    <t>If I see my jobs and responsibilities, then I have delivered 12 automation bots in genpact in 2 different accounts, and I believe that's a big number of delivery in automation. I have worked on almost all automation techniques in UiPath. I am always up to date with this newly released tools and technolgy. Also as a developer, I made Solution design documents in 3-4 projects that should be done by the technical architect. So I believe that I have the capability to do the job for a technical architect if in case he's not available.</t>
-  </si>
-  <si>
-    <t>Since this is my first switch, Based on my 2 years of experience, with around 10+ projects And working on all possible automation conecpts, I believe a salary of 10.65 CTC will do the justice.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1205,56 +1177,305 @@
   </si>
   <si>
     <t>Go through RE Framework all xamls</t>
-  </si>
-  <si>
-    <t>Go through orchestartor all states</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pick Branch - Contains collections of Pick Branch acitivities - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Trigger</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Action - When Some activity triggers then action happens</t>
-    </r>
   </si>
   <si>
     <t>Pick : It chooses one and cancels all other branches.
 Parallel : It pauses and resumes all the activities(in parallel block) based on its availability</t>
+  </si>
+  <si>
+    <t>Visually identifies elements rather than depending on selectors or images</t>
+  </si>
+  <si>
+    <t>One robot can be assigned to multiple environments</t>
+  </si>
+  <si>
+    <t>Mix of AI, OCR, Anchor System, Fuzzy matching</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When Screen changes use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CV Refresh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Usually works in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Virtual Desktop Interface</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tesseract OCR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CV Screen Scope</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  - URL - "https://cv.uipath.com", API Key - Generate from Cloud.uipath.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In latest uipath 2020 application we don't need to use cv </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>refresh.you</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF030303"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> can directly use cv click then you can directly use type into </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>activity.you</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF030303"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> don't need to tell your screen is changing by using click activities your computer vision will automatically know your screen is changing and it will take the screen shot of second screen and automatically change those image and whatever task you want to perform on that text just do it like type into in any particular elements.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pick - &gt;Pick Branch - Contains collections of Pick Branch acitivities - Trigger </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - When Some activity triggers then action happens</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check column in a DT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DT.Columns.Contains("City")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Move a Column to 3rd index</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = Invoke Method - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parameter - In Argument, 2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Target Type - Null, Target Object - DT.Columns(City), Methodname - SetOrdinal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(For Getting DataRow with existed columns) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>datarow = DT.NewRow</t>
+    </r>
+  </si>
+  <si>
+    <t>AddDataRow - ArrayRow = {Name, Age, Desig}, Datarow =  DataRow</t>
+  </si>
+  <si>
+    <t>Go through orchestartor all questions</t>
+  </si>
+  <si>
+    <t>Joining Bonus</t>
+  </si>
+  <si>
+    <t>I just wanted to experience new things, new challenges, new technology, my motive is to learn technical designing beside developing projects</t>
+  </si>
+  <si>
+    <t>Weakness -  Too much into work, Need to switch between multiple work</t>
+  </si>
+  <si>
+    <t>Strength - Quick Learner(Completed UIPath certification in 2 weeks, Learnt Various technogies)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once I join company first I will make sure to understand the current business process by going through documents, recording, </t>
+  </si>
+  <si>
+    <t>Is your organization providing any stocks</t>
+  </si>
+  <si>
+    <t>Which Band or grades I fit into(Designation)</t>
+  </si>
+  <si>
+    <t>If I see my jobs and responsibilities, then I have delivered 12 automation bots in genpact in 2 different accounts, and I believe that's a big number of delivery in automation. I have worked on almost all automation techniques in UiPath. I am always up to date with this newly released tools and technology. Also as a developer, I made Solution design documents in 3-4 projects that should be done by the technical architect. So I believe that I have the capability to do the job for a technical architect if in case he's not available.</t>
+  </si>
+  <si>
+    <t>What is the Salary Structure? What all different factors are there? Gross Pay/Net Pay(Basic, HRA, Allowances), Annual bonus(Variable Pay), Appraisal cycle, Transportation, Employee benefits, Annual Leaves, Notice period, Health Insurances</t>
+  </si>
+  <si>
+    <t>I understand this is your budget, but I think this is my value and deservingly so. It would be great if you can match up to it and we can always come to a point where we both are comfortable</t>
+  </si>
+  <si>
+    <t>Since this is my first switch, Based on my 2 years of experience, with around 12+ projects And working on all possible automation conecpts, I believe a salary of 10.65 CTC will do the justice.</t>
+  </si>
+  <si>
+    <t>Go through AI Center</t>
+  </si>
+  <si>
+    <t>Go through UiPath all questions</t>
+  </si>
+  <si>
+    <t>ML Models, ML packages, Sentiment analysis, Language transalation, UiPath Document Understanding(Invoice Extraction)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1286,8 +1507,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF030303"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1330,6 +1563,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1344,7 +1583,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1353,18 +1592,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1383,14 +1612,35 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1676,7 +1926,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,7 +1985,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1743,7 +1993,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1760,10 +2010,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,12 +2026,12 @@
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1789,7 +2039,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1797,7 +2047,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1805,7 +2055,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1816,7 +2066,7 @@
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1824,7 +2074,7 @@
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1832,7 +2082,7 @@
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1845,34 +2095,44 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>113</v>
+      <c r="A12" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>117</v>
+      <c r="A14" s="12" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>118</v>
+      <c r="A15" s="12" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>119</v>
+      <c r="A16" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1888,47 +2148,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="72.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,100 +2160,129 @@
     <col min="2" max="2" width="79.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="15"/>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="B9" s="15"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="B10" s="15"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:B10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:A62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,7 +2342,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -2100,222 +2352,242 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>106</v>
+      <c r="A14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>41</v>
+      <c r="A23" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>57</v>
+      <c r="A40" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>58</v>
+      <c r="A41" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2324,13 +2596,64 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="113" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="72" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2339,12 +2662,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2355,9 +2673,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="108" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2365,27 +2683,64 @@
     <col min="2" max="2" width="56.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>101</v>
+    <row r="1" spans="1:2" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/UiPath Material.xlsx
+++ b/UiPath Material.xlsx
@@ -9,16 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
     <sheet name="Youtube" sheetId="2" r:id="rId2"/>
-    <sheet name="UiPath Orchestrator" sheetId="5" r:id="rId3"/>
+    <sheet name="UiPath,Orchestrator" sheetId="5" r:id="rId3"/>
     <sheet name="Questions" sheetId="3" r:id="rId4"/>
     <sheet name="Computer Vision" sheetId="9" r:id="rId5"/>
-    <sheet name="Excel" sheetId="7" r:id="rId6"/>
-    <sheet name="Salary Hike Answer" sheetId="4" r:id="rId7"/>
+    <sheet name="Salary Hike Answer" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="221">
   <si>
     <t>Aravo to SAP</t>
   </si>
@@ -801,9 +800,6 @@
   </si>
   <si>
     <t>Go to Project Settings &gt; Modern Design Experience "Yes"</t>
-  </si>
-  <si>
-    <t>Start Recording</t>
   </si>
   <si>
     <t xml:space="preserve">AI Fabric orchestrates all moving pieces of AI ML models(deploy,manage) </t>
@@ -931,32 +927,6 @@
     </r>
   </si>
   <si>
-    <t>It would be great If I get a chance to work in your organization and I would be quite lucky. I think this organziation must be offering some fair amount to someone like me who is matching all the skills and qualifications to this position. Before this answer I would like to know more about my responsibilities regarding this job and I am curious to know what is the amount that you would be offering for this position. Then I can go ahead Mam.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Get.WorkbookSheets</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> activity used for get all sheets in a excel</t>
-    </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1171,9 +1141,6 @@
   </si>
   <si>
     <t>Enhanced Selectors</t>
-  </si>
-  <si>
-    <t>Practise datatable excercises</t>
   </si>
   <si>
     <t>Go through RE Framework all xamls</t>
@@ -1186,9 +1153,6 @@
     <t>Visually identifies elements rather than depending on selectors or images</t>
   </si>
   <si>
-    <t>One robot can be assigned to multiple environments</t>
-  </si>
-  <si>
     <t>Mix of AI, OCR, Anchor System, Fuzzy matching</t>
   </si>
   <si>
@@ -1432,9 +1396,6 @@
     <t>Joining Bonus</t>
   </si>
   <si>
-    <t>I just wanted to experience new things, new challenges, new technology, my motive is to learn technical designing beside developing projects</t>
-  </si>
-  <si>
     <t>Weakness -  Too much into work, Need to switch between multiple work</t>
   </si>
   <si>
@@ -1450,25 +1411,786 @@
     <t>Which Band or grades I fit into(Designation)</t>
   </si>
   <si>
-    <t>If I see my jobs and responsibilities, then I have delivered 12 automation bots in genpact in 2 different accounts, and I believe that's a big number of delivery in automation. I have worked on almost all automation techniques in UiPath. I am always up to date with this newly released tools and technology. Also as a developer, I made Solution design documents in 3-4 projects that should be done by the technical architect. So I believe that I have the capability to do the job for a technical architect if in case he's not available.</t>
-  </si>
-  <si>
     <t>What is the Salary Structure? What all different factors are there? Gross Pay/Net Pay(Basic, HRA, Allowances), Annual bonus(Variable Pay), Appraisal cycle, Transportation, Employee benefits, Annual Leaves, Notice period, Health Insurances</t>
   </si>
   <si>
-    <t>I understand this is your budget, but I think this is my value and deservingly so. It would be great if you can match up to it and we can always come to a point where we both are comfortable</t>
-  </si>
-  <si>
-    <t>Since this is my first switch, Based on my 2 years of experience, with around 12+ projects And working on all possible automation conecpts, I believe a salary of 10.65 CTC will do the justice.</t>
-  </si>
-  <si>
-    <t>Go through AI Center</t>
-  </si>
-  <si>
     <t>Go through UiPath all questions</t>
   </si>
   <si>
     <t>ML Models, ML packages, Sentiment analysis, Language transalation, UiPath Document Understanding(Invoice Extraction)</t>
+  </si>
+  <si>
+    <t>Practise datatable excercises, List, Array, Dictionary excercises</t>
+  </si>
+  <si>
+    <t>Object Repository-&gt;Capture Element-&gt;Start Recording</t>
+  </si>
+  <si>
+    <t>Use Application/Browser container needs to be used</t>
+  </si>
+  <si>
+    <t>Since this is my first switch, Based on my 2 years of experience, with around 12+ projects And working on all possible automation conecpts, I believe a salary of 10.65 CTC will do the justice for my value.</t>
+  </si>
+  <si>
+    <t>It would be great If I get a chance to work in your organization and I would be quite lucky. I think this organization must be offering some fair amount to someone like me who is matching all the skills and qualifications to this position. Before this answer I would like to know more about my responsibilities regarding this job and I am curious to know what is the amount that you would be offering for this position. Then I can go ahead Mam.</t>
+  </si>
+  <si>
+    <t>why are you switching ?</t>
+  </si>
+  <si>
+    <t>For better career prospects, better career growth, I just want  to experience new things, new challenges, new technology. my motive is to learn technical designing beside developing projects</t>
+  </si>
+  <si>
+    <t>I can understand this is your budget, but I think this is my value and deservingly so. It would be great if you can match up to it and I believe we can always come to a point where we both are comfortable.</t>
+  </si>
+  <si>
+    <t>Table extraction or Use application/Browser-&gt;Extract TableData activity</t>
+  </si>
+  <si>
+    <t>(for checking if an element exist on screen)Check App State-&gt;element to appear/element to disappear</t>
+  </si>
+  <si>
+    <t>Modifying Projects(Multiple projects) which is built on Object Repository is very easy -If UI Element gets changed - Click on Object -&gt; Edit Descriptor -&gt; Indicate Element</t>
+  </si>
+  <si>
+    <t>Edit Mutiple projects using Object Repository</t>
+  </si>
+  <si>
+    <t>Extract as library-&gt;Pubish Locally-&gt;Edit the library in Object Repository-Use updated library</t>
+  </si>
+  <si>
+    <t>Classic Folder</t>
+  </si>
+  <si>
+    <t>Modern Folder</t>
+  </si>
+  <si>
+    <t>Contains provisioned robots and environments.</t>
+  </si>
+  <si>
+    <t>Automatic provision of robots as the user and no environment concept.</t>
+  </si>
+  <si>
+    <t>Users are assigned at the tenant level.</t>
+  </si>
+  <si>
+    <t>Users are assigned at the folder level.</t>
+  </si>
+  <si>
+    <t>In the classic model, the robot can be part of only one folder.</t>
+  </si>
+  <si>
+    <t>Combined with Active Directory integration.</t>
+  </si>
+  <si>
+    <t>A classic folder, named Default, is created for each new tenant.</t>
+  </si>
+  <si>
+    <t>Enable you to set roles per user, per folder.</t>
+  </si>
+  <si>
+    <t>You can create as many additional classic folders as needed.</t>
+  </si>
+  <si>
+    <t>You can have up to six subfolders under each first level.</t>
+  </si>
+  <si>
+    <t>Classic folders follow a separate, flat structure.</t>
+  </si>
+  <si>
+    <t>Each subfolder inherits the role assignment model of their parent.</t>
+  </si>
+  <si>
+    <t>Custom Library, Custom Package</t>
+  </si>
+  <si>
+    <t>MainFrame/NonMainFrame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triggers, DataBase, </t>
+  </si>
+  <si>
+    <t>Go through AI Center, AI Fabric, ML Skills, Object Repository, All new features</t>
+  </si>
+  <si>
+    <t>Object repository- capture element</t>
+  </si>
+  <si>
+    <t>Object repository can be extracted as library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use application activity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add verification option for all activities </t>
+  </si>
+  <si>
+    <t>Create test case(if app version changed)</t>
+  </si>
+  <si>
+    <t>Verify control attribute - check app state - drag the activity</t>
+  </si>
+  <si>
+    <t>Extract table data</t>
+  </si>
+  <si>
+    <t>Intelligent keyword classifier - divide docs in a file</t>
+  </si>
+  <si>
+    <t>ML trainer extractor activity</t>
+  </si>
+  <si>
+    <t>Uipath document OCR</t>
+  </si>
+  <si>
+    <t>Intelligent form extractor - OCR handwritten</t>
+  </si>
+  <si>
+    <t>Modern design experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020.10
+</t>
+  </si>
+  <si>
+    <t>Connect UiPath robot to orchestrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Download Package - Intelligent OCR, UiPath.DocumentUnderstanding.ML.Activities, UiPath.OmniPage.Activities, </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Digitize Document</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Extract details of the document/PDF) - Input(PDF Path), Output(StringText), Document Object Model(DOM), Omnipage OCR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Load Taxonomy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; Create variable Taxonomy</t>
+    </r>
+  </si>
+  <si>
+    <t>Create Taxonomy for all fields in Taxonomy Manager(Available in Taxonomy Manager)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data Extraction Scope</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Extract neccesary details of the PDF) - Input(PDF Path), Document Text(StringText), Document Object Model(DOM), Taxonomy, DocumentTypeID(Extract ID from Taxonomy.json), Machine learning Extractor - (EndPount, ML Skills, ApiKey), Output(Extraction Results)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Export Extraction Results</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Input(Validation Results), Output(DataSet)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Get the data in a Sheet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; For Each Item-&gt;DataSet.Tables-&gt;WriteRange(item)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Present Validation Station</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Verify the data before go ahead with the extarction-If you want your robot to be attended) - Visualize the taxonomy - Output(Validation Results)</t>
+    </r>
+  </si>
+  <si>
+    <t>AI Fabric</t>
+  </si>
+  <si>
+    <t>Dashboards</t>
+  </si>
+  <si>
+    <t>ML Logs</t>
+  </si>
+  <si>
+    <t>Go to AI Fabric- &gt;Create a new Project(Project Name, description)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ML packages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(upload customize package from local/out of the box packages)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Datasets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(data set can be uploaded from local)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Out of box Packages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;UiPath Document Understanding, Invoices, Receipts
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Open Source Packages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Image analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Language analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Sentiment Analysis, language Detection, Named Entity Recognition, French textCalssification), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Language comprehension</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Language Translation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tabular Data</t>
+    </r>
+  </si>
+  <si>
+    <t>Select Package Name, Version-&gt;Click on Submit(Package Created and ready for use)</t>
+  </si>
+  <si>
+    <r>
+      <t>ML Skills-&gt;Create new ML Skills-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name, Choose Package, Version, Description</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Go Back to Orchestartor-&gt;ML Skills-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Package will be Deployed in sometime</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Go to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cloud.UiPath.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;Admin-&gt; Services-&gt;Check AI Fabric should be checked and Robot available(2 robots) in Enterprise edition</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Go Back to Studio-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Install UiPath.MLServices.Activities package-&gt;Drag ML Skills acativity-&gt;Output in JSON-&gt;Deserialize Json</t>
+    </r>
+  </si>
+  <si>
+    <t>AI Fabric(Project -German to English Translator chatbot)</t>
+  </si>
+  <si>
+    <t>AI Fabric(Project -German to English Translator) - ML Package-&gt;Language Tranlation</t>
+  </si>
+  <si>
+    <t>AI Fabric QnA bot(ML Package - Language Comprehension-&gt;Question Answering)</t>
+  </si>
+  <si>
+    <t>AI Fabric(Customer Retention Management project) - ML Package-&gt;Langauge Analysis-&gt;Sentiment Analysis</t>
+  </si>
+  <si>
+    <t>Document Understanding(Using ML Extractor) - Extract data from PDF Doc</t>
+  </si>
+  <si>
+    <t>AI Fabric(Extract Invoices from Different format Documents)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get all the UI elements tree in a file </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Activity </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Export UI Tree </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">in modern design experience exports attributes in a JSON/XML </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sorting a datatable by Price and then By Name-&gt; Invoke Code-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in_DT1.DefaultView.Sort=("Cost,Product Name")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">out_DT1=in_DT1.DefaultView.ToTable </t>
+    </r>
+  </si>
+  <si>
+    <t>Create Google Cloud Platform-&gt;API and Services-&gt;Credentials-&gt;Create Credentials-&gt;API Key</t>
+  </si>
+  <si>
+    <t>Install UiPath.web.actviities</t>
+  </si>
+  <si>
+    <t>API(Application Programming Interface)</t>
+  </si>
+  <si>
+    <t>http request activity-&gt;Get/Post/Put/Delete</t>
+  </si>
+  <si>
+    <t>Orchetartor API - Header, body</t>
+  </si>
+  <si>
+    <r>
+      <t>Reverse an array =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> StringArr.Reverse().ToArray</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reverse a list = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Use Invoke Method = Method Name = Reverse, Target Object = ListC</t>
+    </r>
+  </si>
+  <si>
+    <t>I can give you some good important reasons for asking this salary. If I see my jobs and responsibilities, then I have delivered 15 automation bots in genpact in 2 different accounts, and I believe that's a big number of delivery in automation. I have worked on almost all automation techniques in UiPath. I have outperformed my collegues, holding a master degree in computer science. I am always up to date with this newly released tools and technology. Also as a developer, I made Solution design documents in 3-4 projects that should be done by the technical architect. So I believe that I have the capability to do the job for a technical architect if in case he's not available. In the next 2-3 years in this organization, I can asure you that I will be succeed as a technical architect by showcasing my ability.</t>
+  </si>
+  <si>
+    <t>Python With UiPath</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Python Scope</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Activity and Give path of Python installation directory</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Load Python Script</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> activity and give path of python.py file and create PythonObject Variable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Invoke Python Method activity - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Input Parameters - {10,20}, Instance - PythonObject Variable, Name - "add", Output - OutInvokePythonMethod</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Get Python Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> activity - Python Object - OutInvokePythonMethod, Output - OutGetPythonObject</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Message box</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - OutGetPythonObject</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1520,7 +2242,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1569,8 +2291,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1578,12 +2324,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1621,9 +2382,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1633,14 +2391,80 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1658,6 +2482,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5410199</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3324224</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8724899" y="9944099"/>
+          <a:ext cx="7248525" cy="2676525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1926,7 +2793,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2010,16 +2877,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.5703125" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2096,43 +2964,58 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>111</v>
-      </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>140</v>
+      <c r="A18" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2141,6 +3024,7 @@
     <hyperlink ref="B7" r:id="rId2"/>
     <hyperlink ref="B6" r:id="rId3"/>
     <hyperlink ref="B1" r:id="rId4"/>
+    <hyperlink ref="B12" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2148,141 +3032,492 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B81" activeCellId="1" sqref="B81 B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="2" max="2" width="79.7109375" customWidth="1"/>
+    <col min="2" max="2" width="81.140625" customWidth="1"/>
+    <col min="3" max="3" width="58.85546875" customWidth="1"/>
+    <col min="4" max="4" width="82.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="45">
+        <v>2021.4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="45"/>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="45"/>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="45"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="45"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="45"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="45"/>
+    </row>
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B9" s="29" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="C9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
+      <c r="B11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
+      <c r="B13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="44"/>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="44"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="44"/>
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="44"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="44"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="15"/>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="15"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="15"/>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="15"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="15"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>84</v>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="48"/>
+      <c r="B40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="48"/>
+      <c r="B41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="48"/>
+      <c r="B42" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B56" s="32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="B65" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" s="37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" s="38" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="B74" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B76" s="37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B5:B10"/>
+  <mergeCells count="5">
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="A1:A8"/>
+    <mergeCell ref="C1:C8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A39:A42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A62"/>
+  <dimension ref="A1:A65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2342,7 +3577,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -2352,57 +3587,57 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -2415,179 +3650,194 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>43</v>
+    <row r="26" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>126</v>
+      <c r="A43" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>127</v>
+      <c r="A44" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2600,9 +3850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2611,37 +3859,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="72" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2651,92 +3899,75 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="110.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="77.5703125" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" customWidth="1"/>
+    <col min="1" max="1" width="79.28515625" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B7" s="26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>131</v>
+      <c r="A8" s="17" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>132</v>
+      <c r="A9" s="18" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>133</v>
+      <c r="A10" s="15" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
